--- a/datasets/Verb List/Verb Categories/verb_list.xlsx
+++ b/datasets/Verb List/Verb Categories/verb_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="440">
   <si>
     <t>verb</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Mental Cognition/Perception</t>
+  </si>
+  <si>
+    <t>Motion Direction</t>
   </si>
   <si>
     <t>(mirare qualcosa richiede una certo sforzo cognitivo, credo sia più che posizionare in una direzione, ho scelto anche Perception perchè è legato alla vista)</t>
@@ -230,9 +233,6 @@
     <t>Motion Direction?</t>
   </si>
   <si>
-    <t>Motion Direction</t>
-  </si>
-  <si>
     <t>bother</t>
   </si>
   <si>
@@ -1373,7 +1373,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1397,12 +1397,6 @@
       <sz val="10"/>
       <color rgb="FF00a933"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -1451,7 +1445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1472,9 +1466,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1510,7 +1501,7 @@
       <totalsRowFormula>Sum</totalsRowFormula>
     </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
+  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
 </table>
 </file>
 
@@ -1808,15 +1799,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="10.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="19.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="20.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="16.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="15.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="19.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="10.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="19.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="20.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="16.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="15.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="9" width="19.433571428571426" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" hidden="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1836,7 +1827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" hidden="1">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1854,7 +1845,7 @@
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" hidden="1">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1867,7 +1858,7 @@
       <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -1887,20 +1878,22 @@
       <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6" t="s">
+      <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="F4" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" hidden="1">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
@@ -1910,66 +1903,66 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" hidden="1">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75" hidden="1">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75" hidden="1">
+      <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="1" t="s">
+      <c r="C8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>26</v>
+      <c r="D8" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" hidden="1">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>8</v>
@@ -1982,53 +1975,53 @@
       </c>
       <c r="F9" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75" hidden="1">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F10" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" hidden="1">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75" hidden="1">
       <c r="A12" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -2036,12 +2029,12 @@
       </c>
       <c r="F12" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75" hidden="1">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>18</v>
@@ -2054,30 +2047,30 @@
       </c>
       <c r="F13" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" hidden="1">
       <c r="A14" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75" hidden="1">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>18</v>
@@ -2090,91 +2083,91 @@
       </c>
       <c r="F15" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75" hidden="1">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>38</v>
+        <v>50</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" hidden="1">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="C17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>53</v>
       </c>
+      <c r="E17" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="F17" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+        <v>55</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75" hidden="1">
       <c r="A18" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F18" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75" hidden="1">
       <c r="A19" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="F19" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" hidden="1">
       <c r="A20" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="7" t="s">
+      <c r="C20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>64</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -2182,7 +2175,7 @@
       </c>
       <c r="F20" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" hidden="1">
       <c r="A21" s="1" t="s">
         <v>65</v>
       </c>
@@ -2200,7 +2193,7 @@
       </c>
       <c r="F21" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75" hidden="1">
       <c r="A22" s="1" t="s">
         <v>68</v>
       </c>
@@ -2218,7 +2211,7 @@
       </c>
       <c r="F22" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" hidden="1">
       <c r="A23" s="1" t="s">
         <v>70</v>
       </c>
@@ -2238,7 +2231,7 @@
         <v>74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" hidden="1">
       <c r="A24" s="1" t="s">
         <v>75</v>
       </c>
@@ -2256,7 +2249,7 @@
       </c>
       <c r="F24" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" hidden="1">
       <c r="A25" s="1" t="s">
         <v>79</v>
       </c>
@@ -2274,17 +2267,17 @@
       </c>
       <c r="F25" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" hidden="1">
       <c r="A26" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -2292,7 +2285,7 @@
       </c>
       <c r="F26" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" hidden="1">
       <c r="A27" s="1" t="s">
         <v>85</v>
       </c>
@@ -2310,17 +2303,17 @@
       </c>
       <c r="F27" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" hidden="1">
       <c r="A28" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -2328,17 +2321,17 @@
       </c>
       <c r="F28" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" hidden="1">
       <c r="A29" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E29" s="3" t="s">
@@ -2346,17 +2339,17 @@
       </c>
       <c r="F29" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75" hidden="1">
       <c r="A30" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="6" t="s">
         <v>95</v>
       </c>
       <c r="E30" s="1" t="s">
@@ -2364,7 +2357,7 @@
       </c>
       <c r="F30" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" hidden="1">
       <c r="A31" s="1" t="s">
         <v>96</v>
       </c>
@@ -2382,27 +2375,27 @@
       </c>
       <c r="F31" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" hidden="1">
       <c r="A32" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>26</v>
+      <c r="C32" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75" hidden="1">
       <c r="A33" s="1" t="s">
         <v>101</v>
       </c>
@@ -2410,7 +2403,7 @@
         <v>102</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>73</v>
@@ -2422,7 +2415,7 @@
         <v>103</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75" hidden="1">
       <c r="A34" s="1" t="s">
         <v>104</v>
       </c>
@@ -2430,17 +2423,17 @@
         <v>105</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F34" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75" hidden="1">
       <c r="A35" s="1" t="s">
         <v>106</v>
       </c>
@@ -2458,25 +2451,25 @@
       </c>
       <c r="F35" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" hidden="1">
       <c r="A36" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="6" t="s">
         <v>111</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="F36" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75" hidden="1">
       <c r="A37" s="1" t="s">
         <v>112</v>
       </c>
@@ -2494,7 +2487,7 @@
       </c>
       <c r="F37" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" hidden="1">
       <c r="A38" s="1" t="s">
         <v>114</v>
       </c>
@@ -2502,35 +2495,35 @@
         <v>115</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>116</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="F38" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75" hidden="1">
       <c r="A39" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>39</v>
+      <c r="C39" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F39" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75" hidden="1">
       <c r="A40" s="1" t="s">
         <v>119</v>
       </c>
@@ -2538,17 +2531,17 @@
         <v>120</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="F40" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" hidden="1">
       <c r="A41" s="1" t="s">
         <v>121</v>
       </c>
@@ -2566,25 +2559,25 @@
       </c>
       <c r="F41" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75" hidden="1">
       <c r="A42" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F42" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
+      <c r="F42" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" hidden="1">
       <c r="A43" s="1" t="s">
         <v>127</v>
       </c>
@@ -2592,35 +2585,35 @@
         <v>128</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F43" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
+      <c r="F43" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75" hidden="1">
       <c r="A44" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" s="7" t="s">
+      <c r="D44" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F44" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" hidden="1">
       <c r="A45" s="1" t="s">
         <v>131</v>
       </c>
@@ -2628,17 +2621,17 @@
         <v>132</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>61</v>
+        <v>20</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="F45" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" hidden="1">
       <c r="A46" s="1" t="s">
         <v>133</v>
       </c>
@@ -2651,12 +2644,12 @@
       <c r="D46" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F46" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75" hidden="1">
       <c r="A47" s="1" t="s">
         <v>135</v>
       </c>
@@ -2669,12 +2662,12 @@
       <c r="D47" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F47" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75" hidden="1">
       <c r="A48" s="1" t="s">
         <v>137</v>
       </c>
@@ -2682,17 +2675,17 @@
         <v>138</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="6" t="s">
         <v>78</v>
       </c>
       <c r="F48" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75" hidden="1">
       <c r="A49" s="1" t="s">
         <v>140</v>
       </c>
@@ -2705,12 +2698,12 @@
       <c r="D49" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F49" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75" hidden="1">
       <c r="A50" s="1" t="s">
         <v>142</v>
       </c>
@@ -2718,35 +2711,35 @@
         <v>143</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="F50" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75" hidden="1">
       <c r="A51" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F51" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75" hidden="1">
       <c r="A52" s="1" t="s">
         <v>145</v>
       </c>
@@ -2757,14 +2750,14 @@
         <v>147</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>26</v>
+        <v>40</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="F52" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75" hidden="1">
       <c r="A53" s="1" t="s">
         <v>148</v>
       </c>
@@ -2772,19 +2765,19 @@
         <v>149</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75" hidden="1">
       <c r="A54" s="1" t="s">
         <v>151</v>
       </c>
@@ -2792,19 +2785,19 @@
         <v>152</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E54" s="6" t="s">
         <v>73</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75" hidden="1">
       <c r="A55" s="1" t="s">
         <v>155</v>
       </c>
@@ -2817,12 +2810,12 @@
       <c r="D55" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E55" s="6" t="s">
         <v>95</v>
       </c>
       <c r="F55" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75" hidden="1">
       <c r="A56" s="1" t="s">
         <v>157</v>
       </c>
@@ -2830,17 +2823,17 @@
         <v>158</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E56" s="7" t="s">
-        <v>29</v>
+      <c r="E56" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="F56" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75" hidden="1">
       <c r="A57" s="1" t="s">
         <v>159</v>
       </c>
@@ -2853,12 +2846,12 @@
       <c r="D57" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="E57" s="6" t="s">
         <v>161</v>
       </c>
       <c r="F57" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75" hidden="1">
       <c r="A58" s="1" t="s">
         <v>162</v>
       </c>
@@ -2871,12 +2864,12 @@
       <c r="D58" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E58" s="7" t="s">
-        <v>29</v>
+      <c r="E58" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="F58" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75" hidden="1">
       <c r="A59" s="1" t="s">
         <v>165</v>
       </c>
@@ -2887,14 +2880,14 @@
         <v>167</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="F59" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75" hidden="1">
       <c r="A60" s="1" t="s">
         <v>168</v>
       </c>
@@ -2907,12 +2900,12 @@
       <c r="D60" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E60" s="6" t="s">
         <v>78</v>
       </c>
       <c r="F60" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75" hidden="1">
       <c r="A61" s="1" t="s">
         <v>170</v>
       </c>
@@ -2925,12 +2918,12 @@
       <c r="D61" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="E61" s="6" t="s">
         <v>124</v>
       </c>
       <c r="F61" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75" hidden="1">
       <c r="A62" s="1" t="s">
         <v>172</v>
       </c>
@@ -2943,12 +2936,12 @@
       <c r="D62" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E62" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F62" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75" hidden="1">
       <c r="A63" s="1" t="s">
         <v>174</v>
       </c>
@@ -2956,17 +2949,17 @@
         <v>175</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="E63" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F63" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75" hidden="1">
       <c r="A64" s="1" t="s">
         <v>176</v>
       </c>
@@ -2974,17 +2967,17 @@
         <v>177</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="F64" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75" hidden="1">
       <c r="A65" s="1" t="s">
         <v>178</v>
       </c>
@@ -2992,17 +2985,17 @@
         <v>179</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>61</v>
+        <v>20</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="F65" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75" hidden="1">
       <c r="A66" s="1" t="s">
         <v>180</v>
       </c>
@@ -3015,12 +3008,12 @@
       <c r="D66" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E66" s="6" t="s">
         <v>124</v>
       </c>
       <c r="F66" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75" hidden="1">
       <c r="A67" s="1" t="s">
         <v>182</v>
       </c>
@@ -3028,17 +3021,17 @@
         <v>183</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="F67" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75" hidden="1">
       <c r="A68" s="1" t="s">
         <v>184</v>
       </c>
@@ -3049,16 +3042,16 @@
         <v>161</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E68" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E68" s="6" t="s">
         <v>186</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>187</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75" hidden="1">
       <c r="A69" s="1" t="s">
         <v>188</v>
       </c>
@@ -3066,17 +3059,17 @@
         <v>189</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="F69" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75" hidden="1">
       <c r="A70" s="1" t="s">
         <v>190</v>
       </c>
@@ -3089,12 +3082,12 @@
       <c r="D70" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="E70" s="7" t="s">
-        <v>61</v>
+      <c r="E70" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="F70" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75" hidden="1">
       <c r="A71" s="1" t="s">
         <v>193</v>
       </c>
@@ -3107,7 +3100,7 @@
       <c r="D71" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="E71" s="7" t="s">
+      <c r="E71" s="6" t="s">
         <v>161</v>
       </c>
       <c r="F71" s="1"/>
@@ -3125,12 +3118,14 @@
       <c r="D72" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E72" s="7"/>
+      <c r="E72" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="F72" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75" hidden="1">
       <c r="A73" s="1" t="s">
         <v>199</v>
       </c>
@@ -3138,37 +3133,37 @@
         <v>200</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>61</v>
+        <v>20</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>201</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75" hidden="1">
       <c r="A74" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C74" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>26</v>
+      <c r="C74" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F74" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75" hidden="1">
       <c r="A75" s="1" t="s">
         <v>204</v>
       </c>
@@ -3181,12 +3176,12 @@
       <c r="D75" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E75" s="7" t="s">
+      <c r="E75" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F75" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75" hidden="1">
       <c r="A76" s="1" t="s">
         <v>206</v>
       </c>
@@ -3199,17 +3194,17 @@
       <c r="D76" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E76" s="7" t="s">
-        <v>29</v>
+      <c r="E76" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="F76" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75" hidden="1">
       <c r="A77" s="1" t="s">
         <v>207</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>18</v>
@@ -3217,12 +3212,12 @@
       <c r="D77" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E77" s="7" t="s">
+      <c r="E77" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F77" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75" hidden="1">
       <c r="A78" s="1" t="s">
         <v>208</v>
       </c>
@@ -3230,17 +3225,17 @@
         <v>209</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E78" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E78" s="6" t="s">
         <v>210</v>
       </c>
       <c r="F78" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75" hidden="1">
       <c r="A79" s="1" t="s">
         <v>211</v>
       </c>
@@ -3253,12 +3248,12 @@
       <c r="D79" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="E79" s="7" t="s">
+      <c r="E79" s="6" t="s">
         <v>161</v>
       </c>
       <c r="F79" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75" hidden="1">
       <c r="A80" s="1" t="s">
         <v>212</v>
       </c>
@@ -3266,17 +3261,17 @@
         <v>213</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E80" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="F80" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75" hidden="1">
       <c r="A81" s="1" t="s">
         <v>214</v>
       </c>
@@ -3294,7 +3289,7 @@
       </c>
       <c r="F81" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75" hidden="1">
       <c r="A82" s="1" t="s">
         <v>215</v>
       </c>
@@ -3302,17 +3297,17 @@
         <v>216</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="F82" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75" hidden="1">
       <c r="A83" s="1" t="s">
         <v>217</v>
       </c>
@@ -3323,32 +3318,32 @@
         <v>167</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="F83" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75" hidden="1">
       <c r="A84" s="1" t="s">
         <v>219</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C84" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D84" s="7" t="s">
+      <c r="D84" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F84" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
+      <c r="F84" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75" hidden="1">
       <c r="A85" s="1" t="s">
         <v>221</v>
       </c>
@@ -3361,12 +3356,12 @@
       <c r="D85" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E85" s="5" t="s">
+      <c r="E85" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F85" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75" hidden="1">
       <c r="A86" s="1" t="s">
         <v>225</v>
       </c>
@@ -3384,7 +3379,7 @@
       </c>
       <c r="F86" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75" hidden="1">
       <c r="A87" s="1" t="s">
         <v>226</v>
       </c>
@@ -3395,34 +3390,34 @@
         <v>197</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>228</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75" hidden="1">
       <c r="A88" s="1" t="s">
         <v>229</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C88" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D88" s="7" t="s">
+      <c r="D88" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="E88" s="7" t="s">
+      <c r="E88" s="6" t="s">
         <v>95</v>
       </c>
       <c r="F88" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75" hidden="1">
       <c r="A89" s="1" t="s">
         <v>231</v>
       </c>
@@ -3435,30 +3430,30 @@
       <c r="D89" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E89" s="7" t="s">
+      <c r="E89" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F89" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75" hidden="1">
       <c r="A90" s="1" t="s">
         <v>233</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C90" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D90" s="7" t="s">
+      <c r="C90" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D90" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E90" s="7" t="s">
+      <c r="E90" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F90" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75" hidden="1">
       <c r="A91" s="1" t="s">
         <v>235</v>
       </c>
@@ -3466,17 +3461,17 @@
         <v>236</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E91" s="7" t="s">
+      <c r="E91" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F91" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75" hidden="1">
       <c r="A92" s="1" t="s">
         <v>237</v>
       </c>
@@ -3484,17 +3479,17 @@
         <v>238</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E92" s="7" t="s">
+      <c r="E92" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F92" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75" hidden="1">
       <c r="A93" s="1" t="s">
         <v>239</v>
       </c>
@@ -3507,12 +3502,12 @@
       <c r="D93" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E93" s="7" t="s">
+      <c r="E93" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F93" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75" hidden="1">
       <c r="A94" s="1" t="s">
         <v>241</v>
       </c>
@@ -3520,35 +3515,35 @@
         <v>242</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E94" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="F94" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75" hidden="1">
       <c r="A95" s="1" t="s">
         <v>243</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C95" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>39</v>
+      <c r="C95" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F95" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75" hidden="1">
       <c r="A96" s="1" t="s">
         <v>245</v>
       </c>
@@ -3556,35 +3551,35 @@
         <v>246</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E96" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="F96" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75" hidden="1">
       <c r="A97" s="1" t="s">
         <v>247</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C97" s="7" t="s">
+      <c r="C97" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="D97" s="7" t="s">
+      <c r="D97" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="E97" s="7" t="s">
-        <v>61</v>
+      <c r="E97" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="F97" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75" hidden="1">
       <c r="A98" s="1" t="s">
         <v>249</v>
       </c>
@@ -3597,12 +3592,12 @@
       <c r="D98" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E98" s="7" t="s">
+      <c r="E98" s="6" t="s">
         <v>78</v>
       </c>
       <c r="F98" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75" hidden="1">
       <c r="A99" s="1" t="s">
         <v>251</v>
       </c>
@@ -3615,86 +3610,86 @@
       <c r="D99" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E99" s="7" t="s">
+      <c r="E99" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F99" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75" hidden="1">
       <c r="A100" s="1" t="s">
         <v>253</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C100" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D100" s="7" t="s">
+      <c r="C100" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D100" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="E100" s="7" t="s">
-        <v>61</v>
+      <c r="E100" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="F100" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75" hidden="1">
       <c r="A101" s="1" t="s">
         <v>255</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C101" s="7" t="s">
+      <c r="C101" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="D101" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E101" s="7" t="s">
-        <v>39</v>
+      <c r="D101" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="F101" s="4" t="s">
         <v>256</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75" hidden="1">
       <c r="A102" s="1" t="s">
         <v>257</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C102" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D102" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E102" s="7" t="s">
-        <v>61</v>
+      <c r="C102" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="F102" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75" hidden="1">
       <c r="A103" s="1" t="s">
         <v>259</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C103" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D103" s="7" t="s">
-        <v>39</v>
+      <c r="C103" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F103" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75" hidden="1">
       <c r="A104" s="1" t="s">
         <v>261</v>
       </c>
@@ -3712,7 +3707,7 @@
       </c>
       <c r="F104" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75" hidden="1">
       <c r="A105" s="1" t="s">
         <v>263</v>
       </c>
@@ -3720,7 +3715,7 @@
         <v>264</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>95</v>
@@ -3730,7 +3725,7 @@
       </c>
       <c r="F105" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75" hidden="1">
       <c r="A106" s="1" t="s">
         <v>265</v>
       </c>
@@ -3748,7 +3743,7 @@
       </c>
       <c r="F106" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75" hidden="1">
       <c r="A107" s="1" t="s">
         <v>268</v>
       </c>
@@ -3759,14 +3754,14 @@
         <v>270</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F107" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75" hidden="1">
       <c r="A108" s="1" t="s">
         <v>271</v>
       </c>
@@ -3784,7 +3779,7 @@
       </c>
       <c r="F108" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75" hidden="1">
       <c r="A109" s="1" t="s">
         <v>273</v>
       </c>
@@ -3795,14 +3790,14 @@
         <v>197</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E109" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E109" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F109" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75" hidden="1">
       <c r="A110" s="1" t="s">
         <v>275</v>
       </c>
@@ -3810,7 +3805,7 @@
         <v>276</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>12</v>
@@ -3820,7 +3815,7 @@
       </c>
       <c r="F110" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75" hidden="1">
       <c r="A111" s="1" t="s">
         <v>277</v>
       </c>
@@ -3840,17 +3835,17 @@
         <v>279</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75" hidden="1">
       <c r="A112" s="1" t="s">
         <v>280</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C112" s="7" t="s">
+      <c r="C112" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D112" s="7" t="s">
+      <c r="D112" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E112" s="1" t="s">
@@ -3858,7 +3853,7 @@
       </c>
       <c r="F112" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75" hidden="1">
       <c r="A113" s="1" t="s">
         <v>282</v>
       </c>
@@ -3876,7 +3871,7 @@
       </c>
       <c r="F113" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75" hidden="1">
       <c r="A114" s="1" t="s">
         <v>284</v>
       </c>
@@ -3884,7 +3879,7 @@
         <v>285</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>147</v>
@@ -3894,55 +3889,55 @@
       </c>
       <c r="F114" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75" hidden="1">
       <c r="A115" s="1" t="s">
         <v>286</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C115" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D115" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E115" s="5" t="s">
+      <c r="C115" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E115" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>288</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75" hidden="1">
       <c r="A116" s="1" t="s">
         <v>289</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C116" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D116" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E116" s="5" t="s">
+      <c r="C116" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E116" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F116" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75" hidden="1">
       <c r="A117" s="1" t="s">
         <v>291</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C117" s="7" t="s">
+      <c r="C117" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="D117" s="7" t="s">
+      <c r="D117" s="6" t="s">
         <v>293</v>
       </c>
       <c r="E117" s="1" t="s">
@@ -3950,25 +3945,25 @@
       </c>
       <c r="F117" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75" hidden="1">
       <c r="A118" s="1" t="s">
         <v>294</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C118" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D118" s="7" t="s">
+      <c r="C118" s="6" t="s">
         <v>61</v>
       </c>
+      <c r="D118" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="E118" s="1" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="F118" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75" hidden="1">
       <c r="A119" s="1" t="s">
         <v>296</v>
       </c>
@@ -3988,7 +3983,7 @@
         <v>298</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75" hidden="1">
       <c r="A120" s="1" t="s">
         <v>299</v>
       </c>
@@ -4006,25 +4001,25 @@
       </c>
       <c r="F120" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75" hidden="1">
       <c r="A121" s="1" t="s">
         <v>302</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C121" s="7" t="s">
+      <c r="C121" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="D121" s="7" t="s">
+      <c r="D121" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="E121" s="5" t="s">
+      <c r="E121" s="1" t="s">
         <v>293</v>
       </c>
       <c r="F121" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75" hidden="1">
       <c r="A122" s="1" t="s">
         <v>304</v>
       </c>
@@ -4042,17 +4037,17 @@
       </c>
       <c r="F122" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75" hidden="1">
       <c r="A123" s="1" t="s">
         <v>306</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C123" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D123" s="7" t="s">
+      <c r="C123" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D123" s="6" t="s">
         <v>78</v>
       </c>
       <c r="E123" s="1" t="s">
@@ -4060,7 +4055,7 @@
       </c>
       <c r="F123" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75" hidden="1">
       <c r="A124" s="1" t="s">
         <v>308</v>
       </c>
@@ -4078,7 +4073,7 @@
       </c>
       <c r="F124" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75" hidden="1">
       <c r="A125" s="1" t="s">
         <v>310</v>
       </c>
@@ -4092,13 +4087,13 @@
         <v>312</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F125" s="4" t="s">
         <v>313</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75" hidden="1">
       <c r="A126" s="1" t="s">
         <v>314</v>
       </c>
@@ -4116,7 +4111,7 @@
       </c>
       <c r="F126" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75" hidden="1">
       <c r="A127" s="1" t="s">
         <v>316</v>
       </c>
@@ -4134,7 +4129,7 @@
       </c>
       <c r="F127" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75" hidden="1">
       <c r="A128" s="1" t="s">
         <v>318</v>
       </c>
@@ -4142,27 +4137,27 @@
         <v>319</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F128" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75" hidden="1">
       <c r="A129" s="1" t="s">
         <v>320</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C129" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D129" s="7" t="s">
+      <c r="C129" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D129" s="6" t="s">
         <v>78</v>
       </c>
       <c r="E129" s="3" t="s">
@@ -4170,7 +4165,7 @@
       </c>
       <c r="F129" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75" hidden="1">
       <c r="A130" s="1" t="s">
         <v>322</v>
       </c>
@@ -4178,27 +4173,27 @@
         <v>323</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F130" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75" hidden="1">
       <c r="A131" s="1" t="s">
         <v>324</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C131" s="7" t="s">
+      <c r="C131" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D131" s="7" t="s">
+      <c r="D131" s="6" t="s">
         <v>224</v>
       </c>
       <c r="E131" s="3" t="s">
@@ -4206,7 +4201,7 @@
       </c>
       <c r="F131" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75" hidden="1">
       <c r="A132" s="1" t="s">
         <v>326</v>
       </c>
@@ -4224,7 +4219,7 @@
       </c>
       <c r="F132" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75" hidden="1">
       <c r="A133" s="1" t="s">
         <v>328</v>
       </c>
@@ -4242,17 +4237,17 @@
       </c>
       <c r="F133" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75" hidden="1">
       <c r="A134" s="1" t="s">
         <v>331</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C134" s="7" t="s">
+      <c r="C134" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D134" s="7" t="s">
+      <c r="D134" s="6" t="s">
         <v>333</v>
       </c>
       <c r="E134" s="3" t="s">
@@ -4260,25 +4255,25 @@
       </c>
       <c r="F134" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75" hidden="1">
       <c r="A135" s="1" t="s">
         <v>334</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C135" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D135" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E135" s="5" t="s">
+      <c r="C135" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E135" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F135" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75" hidden="1">
       <c r="A136" s="1" t="s">
         <v>336</v>
       </c>
@@ -4296,7 +4291,7 @@
       </c>
       <c r="F136" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75" hidden="1">
       <c r="A137" s="1" t="s">
         <v>338</v>
       </c>
@@ -4314,7 +4309,7 @@
       </c>
       <c r="F137" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75" hidden="1">
       <c r="A138" s="1" t="s">
         <v>340</v>
       </c>
@@ -4322,7 +4317,7 @@
         <v>341</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>9</v>
@@ -4334,7 +4329,7 @@
         <v>342</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75" hidden="1">
       <c r="A139" s="1" t="s">
         <v>343</v>
       </c>
@@ -4342,19 +4337,19 @@
         <v>344</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F139" s="4" t="s">
         <v>345</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75" hidden="1">
       <c r="A140" s="1" t="s">
         <v>346</v>
       </c>
@@ -4362,53 +4357,53 @@
         <v>347</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>78</v>
       </c>
       <c r="F140" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75" hidden="1">
       <c r="A141" s="1" t="s">
         <v>348</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="C141" s="7" t="s">
+      <c r="C141" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="D141" s="7" t="s">
+      <c r="D141" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="E141" s="5" t="s">
+      <c r="E141" s="1" t="s">
         <v>161</v>
       </c>
       <c r="F141" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75" hidden="1">
       <c r="A142" s="1" t="s">
         <v>350</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C142" s="7" t="s">
+      <c r="C142" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="D142" s="7" t="s">
+      <c r="D142" s="6" t="s">
         <v>352</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F142" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75" hidden="1">
       <c r="A143" s="1" t="s">
         <v>353</v>
       </c>
@@ -4422,21 +4417,21 @@
         <v>64</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F143" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75" hidden="1">
       <c r="A144" s="1" t="s">
         <v>356</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C144" s="7" t="s">
+      <c r="C144" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="D144" s="7" t="s">
+      <c r="D144" s="6" t="s">
         <v>293</v>
       </c>
       <c r="E144" s="2" t="s">
@@ -4444,7 +4439,7 @@
       </c>
       <c r="F144" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75" hidden="1">
       <c r="A145" s="1" t="s">
         <v>358</v>
       </c>
@@ -4455,34 +4450,34 @@
         <v>167</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F145" s="4" t="s">
         <v>360</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75" hidden="1">
       <c r="A146" s="1" t="s">
         <v>361</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C146" s="7" t="s">
+      <c r="C146" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D146" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E146" s="7" t="s">
+      <c r="D146" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E146" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F146" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75" hidden="1">
       <c r="A147" s="1" t="s">
         <v>363</v>
       </c>
@@ -4490,17 +4485,17 @@
         <v>364</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E147" s="7" t="s">
+      <c r="E147" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F147" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75" hidden="1">
       <c r="A148" s="1" t="s">
         <v>365</v>
       </c>
@@ -4513,12 +4508,12 @@
       <c r="D148" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="E148" s="7" t="s">
+      <c r="E148" s="6" t="s">
         <v>161</v>
       </c>
       <c r="F148" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75" hidden="1">
       <c r="A149" s="1" t="s">
         <v>367</v>
       </c>
@@ -4531,12 +4526,12 @@
       <c r="D149" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E149" s="7" t="s">
+      <c r="E149" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F149" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75" hidden="1">
       <c r="A150" s="1" t="s">
         <v>369</v>
       </c>
@@ -4549,12 +4544,12 @@
       <c r="D150" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E150" s="7" t="s">
+      <c r="E150" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F150" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75" hidden="1">
       <c r="A151" s="1" t="s">
         <v>371</v>
       </c>
@@ -4567,12 +4562,12 @@
       <c r="D151" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E151" s="7" t="s">
+      <c r="E151" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F151" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75" hidden="1">
       <c r="A152" s="1" t="s">
         <v>372</v>
       </c>
@@ -4590,7 +4585,7 @@
       </c>
       <c r="F152" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75" hidden="1">
       <c r="A153" s="1" t="s">
         <v>375</v>
       </c>
@@ -4608,7 +4603,7 @@
       </c>
       <c r="F153" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75" hidden="1">
       <c r="A154" s="1" t="s">
         <v>378</v>
       </c>
@@ -4626,25 +4621,25 @@
       </c>
       <c r="F154" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75" hidden="1">
       <c r="A155" s="1" t="s">
         <v>381</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="C155" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D155" s="7" t="s">
-        <v>29</v>
+      <c r="C155" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D155" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F155" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75" hidden="1">
       <c r="A156" s="1" t="s">
         <v>383</v>
       </c>
@@ -4652,7 +4647,7 @@
         <v>384</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D156" s="3" t="s">
         <v>78</v>
@@ -4664,7 +4659,7 @@
         <v>385</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75" hidden="1">
       <c r="A157" s="1" t="s">
         <v>386</v>
       </c>
@@ -4682,7 +4677,7 @@
       </c>
       <c r="F157" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75" hidden="1">
       <c r="A158" s="1" t="s">
         <v>387</v>
       </c>
@@ -4690,17 +4685,17 @@
         <v>388</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F158" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75" hidden="1">
       <c r="A159" s="1" t="s">
         <v>389</v>
       </c>
@@ -4708,17 +4703,17 @@
         <v>390</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F159" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75" hidden="1">
       <c r="A160" s="1" t="s">
         <v>391</v>
       </c>
@@ -4736,17 +4731,17 @@
       </c>
       <c r="F160" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75" hidden="1">
       <c r="A161" s="1" t="s">
         <v>393</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="C161" s="7" t="s">
+      <c r="C161" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D161" s="7" t="s">
+      <c r="D161" s="6" t="s">
         <v>124</v>
       </c>
       <c r="E161" s="1" t="s">
@@ -4754,25 +4749,25 @@
       </c>
       <c r="F161" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75" hidden="1">
       <c r="A162" s="1" t="s">
         <v>395</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="C162" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D162" s="7" t="s">
+      <c r="C162" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D162" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="E162" s="5" t="s">
-        <v>61</v>
+      <c r="E162" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="F162" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75" hidden="1">
       <c r="A163" s="1" t="s">
         <v>397</v>
       </c>
@@ -4790,25 +4785,25 @@
       </c>
       <c r="F163" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75" hidden="1">
       <c r="A164" s="1" t="s">
         <v>399</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="C164" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D164" s="7" t="s">
-        <v>39</v>
+      <c r="C164" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F164" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75" hidden="1">
       <c r="A165" s="1" t="s">
         <v>401</v>
       </c>
@@ -4821,12 +4816,12 @@
       <c r="D165" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E165" s="5" t="s">
+      <c r="E165" s="1" t="s">
         <v>95</v>
       </c>
       <c r="F165" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75" hidden="1">
       <c r="A166" s="1" t="s">
         <v>404</v>
       </c>
@@ -4839,12 +4834,12 @@
       <c r="D166" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E166" s="5" t="s">
+      <c r="E166" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F166" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75" hidden="1">
       <c r="A167" s="1" t="s">
         <v>406</v>
       </c>
@@ -4857,12 +4852,12 @@
       <c r="D167" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E167" s="5" t="s">
+      <c r="E167" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F167" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75" hidden="1">
       <c r="A168" s="1" t="s">
         <v>407</v>
       </c>
@@ -4880,17 +4875,17 @@
       </c>
       <c r="F168" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75" hidden="1">
       <c r="A169" s="1" t="s">
         <v>409</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="C169" s="7" t="s">
+      <c r="C169" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D169" s="7" t="s">
+      <c r="D169" s="6" t="s">
         <v>95</v>
       </c>
       <c r="E169" s="1" t="s">
@@ -4898,7 +4893,7 @@
       </c>
       <c r="F169" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75" hidden="1">
       <c r="A170" s="1" t="s">
         <v>411</v>
       </c>
@@ -4906,17 +4901,17 @@
         <v>118</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F170" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75" hidden="1">
       <c r="A171" s="1" t="s">
         <v>412</v>
       </c>
@@ -4924,7 +4919,7 @@
         <v>325</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="D171" s="3" t="s">
         <v>95</v>
@@ -4934,7 +4929,7 @@
       </c>
       <c r="F171" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75" hidden="1">
       <c r="A172" s="1" t="s">
         <v>413</v>
       </c>
@@ -4945,10 +4940,10 @@
         <v>192</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="F172" s="4"/>
     </row>
@@ -4959,16 +4954,18 @@
       <c r="B173" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C173" s="7" t="s">
+      <c r="C173" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="D173" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E173" s="3"/>
+      <c r="D173" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="F173" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75" hidden="1">
       <c r="A174" s="1" t="s">
         <v>417</v>
       </c>
@@ -4976,7 +4973,7 @@
         <v>418</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D174" s="3" t="s">
         <v>301</v>
@@ -4988,7 +4985,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75" hidden="1">
       <c r="A175" s="1" t="s">
         <v>420</v>
       </c>
@@ -4996,35 +4993,37 @@
         <v>421</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D175" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F175" s="4" t="s">
         <v>422</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75" hidden="1">
       <c r="A176" s="1" t="s">
         <v>423</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="C176" s="7" t="s">
+      <c r="C176" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D176" s="7" t="s">
+      <c r="D176" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E176" s="1"/>
+      <c r="E176" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F176" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75" hidden="1">
       <c r="A177" s="1" t="s">
         <v>425</v>
       </c>
@@ -5032,17 +5031,17 @@
         <v>426</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F177" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75" hidden="1">
       <c r="A178" s="1" t="s">
         <v>427</v>
       </c>
@@ -5060,7 +5059,7 @@
       </c>
       <c r="F178" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75" hidden="1">
       <c r="A179" s="1" t="s">
         <v>429</v>
       </c>
@@ -5078,7 +5077,7 @@
       </c>
       <c r="F179" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75" hidden="1">
       <c r="A180" s="1" t="s">
         <v>431</v>
       </c>
@@ -5092,11 +5091,11 @@
         <v>374</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F180" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75" hidden="1">
       <c r="A181" s="1" t="s">
         <v>434</v>
       </c>
@@ -5110,7 +5109,7 @@
         <v>87</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F181" s="4"/>
     </row>
@@ -5127,10 +5126,12 @@
       <c r="D182" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E182" s="3"/>
+      <c r="E182" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="F182" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75" hidden="1">
       <c r="A183" s="1" t="s">
         <v>438</v>
       </c>
@@ -5138,13 +5139,13 @@
         <v>439</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F183" s="4"/>
     </row>
